--- a/project-management-CICD.xlsx
+++ b/project-management-CICD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bharathivedurumudi/UdacityProj2b/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5038345-9825-F247-9BD8-8BACC0D45161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC93219-B33C-3841-8180-4CB15CCD876A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quarterly Yearly Plan" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="80">
   <si>
     <t>Week</t>
   </si>
@@ -619,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9F7F0AB-C63C-5B48-B897-DECEB21AEADE}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -631,7 +631,7 @@
     <col min="3" max="3" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="9">
         <v>2024</v>
       </c>
@@ -644,8 +644,11 @@
       <c r="D1" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -658,8 +661,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -672,8 +678,11 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -686,8 +695,11 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -700,6 +712,9 @@
       <c r="D5">
         <v>4</v>
       </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -713,8 +728,8 @@
   </sheetPr>
   <dimension ref="A1:AE1040"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
